--- a/bond_composite.xlsx
+++ b/bond_composite.xlsx
@@ -512,22 +512,22 @@
         <v>47098</v>
       </c>
       <c r="F2" t="n">
-        <v>6.414589889991723</v>
+        <v>6.414588354840975</v>
       </c>
       <c r="G2" t="n">
         <v>88.54000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03186211861871269</v>
+        <v>0.03186212324679216</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0135</v>
+        <v>0.0134</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01836211861871269</v>
+        <v>0.01846212324679216</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03576211861871269</v>
+        <v>0.03586212324679216</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
         <v>46736</v>
       </c>
       <c r="F3" t="n">
-        <v>5.422808906792396</v>
+        <v>5.422807431545408</v>
       </c>
       <c r="G3" t="n">
-        <v>95.67</v>
+        <v>95.69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03563429562384934</v>
+        <v>0.03558970141998996</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0124</v>
+        <v>0.0123</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02323429562384934</v>
+        <v>0.02328970141998996</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04073429562384934</v>
+        <v>0.04068970141998996</v>
       </c>
     </row>
     <row r="4">
@@ -594,22 +594,22 @@
         <v>48929</v>
       </c>
       <c r="F4" t="n">
-        <v>11.43102799651592</v>
+        <v>11.43102651480184</v>
       </c>
       <c r="G4" t="n">
-        <v>76.69</v>
+        <v>76.72</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03163872572657644</v>
+        <v>0.03160052427274196</v>
       </c>
       <c r="I4" t="n">
         <v>0.0186</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01303872572657644</v>
+        <v>0.01300052427274196</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03053872572657644</v>
+        <v>0.03040052427274196</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         <v>47059</v>
       </c>
       <c r="F5" t="n">
-        <v>6.307740246535991</v>
+        <v>6.307738759747273</v>
       </c>
       <c r="G5" t="n">
-        <v>83.83</v>
+        <v>83.84</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02835696717045955</v>
+        <v>0.02833752748070939</v>
       </c>
       <c r="I5" t="n">
         <v>0.0134</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01495696717045955</v>
+        <v>0.01493752748070939</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03245696717045955</v>
+        <v>0.03233752748070939</v>
       </c>
     </row>
     <row r="6">
@@ -676,22 +676,22 @@
         <v>48222</v>
       </c>
       <c r="F6" t="n">
-        <v>9.494041364644248</v>
+        <v>9.494040042707921</v>
       </c>
       <c r="G6" t="n">
-        <v>78.95999999999999</v>
+        <v>78.97</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03152625046537882</v>
+        <v>0.03151177746493539</v>
       </c>
       <c r="I6" t="n">
         <v>0.0166</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01492625046537882</v>
+        <v>0.01491177746493539</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03232625046537882</v>
+        <v>0.03231177746493538</v>
       </c>
     </row>
     <row r="7">
@@ -707,22 +707,22 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>7.814041680896056</v>
+        <v>7.814040220728685</v>
       </c>
       <c r="G7" t="n">
-        <v>84.73799999999999</v>
+        <v>84.75200000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03180367152099537</v>
+        <v>0.03178033077703377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0149</v>
+        <v>0.01486</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01690367152099537</v>
+        <v>0.01692033077703377</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03436367152099537</v>
+        <v>0.03432033077703377</v>
       </c>
     </row>
   </sheetData>

--- a/bond_composite.xlsx
+++ b/bond_composite.xlsx
@@ -512,22 +512,22 @@
         <v>47098</v>
       </c>
       <c r="F2" t="n">
-        <v>6.414588354840975</v>
+        <v>6.403577508329116</v>
       </c>
       <c r="G2" t="n">
-        <v>88.54000000000001</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03186212324679216</v>
+        <v>0.03183715456471803</v>
       </c>
       <c r="I2" t="n">
         <v>0.0134</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01846212324679216</v>
+        <v>0.01843715456471803</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03586212324679216</v>
+        <v>0.03663715456471803</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
         <v>46736</v>
       </c>
       <c r="F3" t="n">
-        <v>5.422807431545408</v>
+        <v>5.411796627969051</v>
       </c>
       <c r="G3" t="n">
-        <v>95.69</v>
+        <v>95.72</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03558970141998996</v>
+        <v>0.03553937432865162</v>
       </c>
       <c r="I3" t="n">
         <v>0.0123</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02328970141998996</v>
+        <v>0.02323937432865162</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04068970141998996</v>
+        <v>0.04143937432865162</v>
       </c>
     </row>
     <row r="4">
@@ -594,22 +594,22 @@
         <v>48929</v>
       </c>
       <c r="F4" t="n">
-        <v>11.43102651480184</v>
+        <v>11.42001574762284</v>
       </c>
       <c r="G4" t="n">
-        <v>76.72</v>
+        <v>76.84</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03160052427274196</v>
+        <v>0.03147061866053491</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0186</v>
+        <v>0.0191</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01300052427274196</v>
+        <v>0.01237061866053491</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03040052427274196</v>
+        <v>0.03057061866053491</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         <v>47059</v>
       </c>
       <c r="F5" t="n">
-        <v>6.307738759747273</v>
+        <v>6.296728015749271</v>
       </c>
       <c r="G5" t="n">
-        <v>83.84</v>
+        <v>83.78</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02833752748070939</v>
+        <v>0.02850470550880613</v>
       </c>
       <c r="I5" t="n">
         <v>0.0134</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01493752748070939</v>
+        <v>0.01510470550880613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03233752748070939</v>
+        <v>0.03330470550880613</v>
       </c>
     </row>
     <row r="6">
@@ -676,22 +676,22 @@
         <v>48222</v>
       </c>
       <c r="F6" t="n">
-        <v>9.494040042707921</v>
+        <v>9.483029329420187</v>
       </c>
       <c r="G6" t="n">
-        <v>78.97</v>
+        <v>78.89</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03151177746493539</v>
+        <v>0.03165738164471943</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0166</v>
+        <v>0.0169</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01491177746493539</v>
+        <v>0.01475738164471943</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03231177746493538</v>
+        <v>0.03295738164471943</v>
       </c>
     </row>
     <row r="7">
@@ -707,22 +707,22 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>7.814040220728685</v>
+        <v>7.803029445818093</v>
       </c>
       <c r="G7" t="n">
-        <v>84.75200000000002</v>
+        <v>84.75999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03178033077703377</v>
+        <v>0.03180184694148602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01486</v>
+        <v>0.01502</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01692033077703377</v>
+        <v>0.01678184694148602</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03432033077703377</v>
+        <v>0.03498184694148603</v>
       </c>
     </row>
   </sheetData>

--- a/bond_composite.xlsx
+++ b/bond_composite.xlsx
@@ -512,22 +512,22 @@
         <v>47098</v>
       </c>
       <c r="F2" t="n">
-        <v>6.403577508329116</v>
+        <v>6.403510363050831</v>
       </c>
       <c r="G2" t="n">
         <v>88.56999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03183715456471803</v>
+        <v>0.03183735711970659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0134</v>
+        <v>0.0133</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01843715456471803</v>
+        <v>0.01853735711970659</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03663715456471803</v>
+        <v>0.03663735711970659</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
         <v>46736</v>
       </c>
       <c r="F3" t="n">
-        <v>5.411796627969051</v>
+        <v>5.411729482311517</v>
       </c>
       <c r="G3" t="n">
-        <v>95.72</v>
+        <v>95.73</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03553937432865162</v>
+        <v>0.03551715064850547</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0123</v>
+        <v>0.0122</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02323937432865162</v>
+        <v>0.02331715064850547</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04143937432865162</v>
+        <v>0.04141715064850547</v>
       </c>
     </row>
     <row r="4">
@@ -594,22 +594,22 @@
         <v>48929</v>
       </c>
       <c r="F4" t="n">
-        <v>11.42001574762284</v>
+        <v>11.41994860315608</v>
       </c>
       <c r="G4" t="n">
-        <v>76.84</v>
+        <v>76.83</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03147061866053491</v>
+        <v>0.03148347880050006</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0191</v>
+        <v>0.019</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01237061866053491</v>
+        <v>0.01248347880050006</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03057061866053491</v>
+        <v>0.03058347880050007</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         <v>47059</v>
       </c>
       <c r="F5" t="n">
-        <v>6.296728015749271</v>
+        <v>6.296660870490012</v>
       </c>
       <c r="G5" t="n">
         <v>83.78</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02850470550880613</v>
+        <v>0.02850501376408476</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0134</v>
+        <v>0.0132</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01510470550880613</v>
+        <v>0.01530501376408476</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03330470550880613</v>
+        <v>0.03340501376408476</v>
       </c>
     </row>
     <row r="6">
@@ -676,22 +676,22 @@
         <v>48222</v>
       </c>
       <c r="F6" t="n">
-        <v>9.483029329420187</v>
+        <v>9.482962176039289</v>
       </c>
       <c r="G6" t="n">
         <v>78.89</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03165738164471943</v>
+        <v>0.03165756319475088</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0169</v>
+        <v>0.0168</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01475738164471943</v>
+        <v>0.01485756319475088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03295738164471943</v>
+        <v>0.03295756319475088</v>
       </c>
     </row>
     <row r="7">
@@ -707,22 +707,22 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>7.803029445818093</v>
+        <v>7.802962299009545</v>
       </c>
       <c r="G7" t="n">
         <v>84.75999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03180184694148602</v>
+        <v>0.03180011270550955</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01502</v>
+        <v>0.0149</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01678184694148602</v>
+        <v>0.01690011270550956</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03498184694148603</v>
+        <v>0.03500011270550955</v>
       </c>
     </row>
   </sheetData>

--- a/bond_composite.xlsx
+++ b/bond_composite.xlsx
@@ -512,22 +512,22 @@
         <v>47098</v>
       </c>
       <c r="F2" t="n">
-        <v>6.403510363050831</v>
+        <v>6.403479537592593</v>
       </c>
       <c r="G2" t="n">
-        <v>88.56999999999999</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03183735711970659</v>
+        <v>0.03168230889232371</v>
       </c>
       <c r="I2" t="n">
         <v>0.0133</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01853735711970659</v>
+        <v>0.01838230889232371</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03663735711970659</v>
+        <v>0.03648230889232371</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
         <v>46736</v>
       </c>
       <c r="F3" t="n">
-        <v>5.411729482311517</v>
+        <v>5.411698653838122</v>
       </c>
       <c r="G3" t="n">
-        <v>95.73</v>
+        <v>95.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03551715064850547</v>
+        <v>0.03536100684835874</v>
       </c>
       <c r="I3" t="n">
         <v>0.0122</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02331715064850547</v>
+        <v>0.02316100684835875</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04141715064850547</v>
+        <v>0.04126100684835875</v>
       </c>
     </row>
     <row r="4">
@@ -594,22 +594,22 @@
         <v>48929</v>
       </c>
       <c r="F4" t="n">
-        <v>11.41994860315608</v>
+        <v>11.41991775820494</v>
       </c>
       <c r="G4" t="n">
-        <v>76.83</v>
+        <v>77.06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03148347880050006</v>
+        <v>0.03119143734225438</v>
       </c>
       <c r="I4" t="n">
         <v>0.019</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01248347880050006</v>
+        <v>0.01219143734225438</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03058347880050007</v>
+        <v>0.03029143734225438</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         <v>47059</v>
       </c>
       <c r="F5" t="n">
-        <v>6.296660870490012</v>
+        <v>6.296630026585585</v>
       </c>
       <c r="G5" t="n">
-        <v>83.78</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02850501376408476</v>
+        <v>0.02836874549167967</v>
       </c>
       <c r="I5" t="n">
         <v>0.0132</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01530501376408476</v>
+        <v>0.01516874549167967</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03340501376408476</v>
+        <v>0.03326874549167967</v>
       </c>
     </row>
     <row r="6">
@@ -676,22 +676,22 @@
         <v>48222</v>
       </c>
       <c r="F6" t="n">
-        <v>9.482962176039289</v>
+        <v>9.482931339685566</v>
       </c>
       <c r="G6" t="n">
-        <v>78.89</v>
+        <v>79</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03165756319475088</v>
+        <v>0.03149817720916803</v>
       </c>
       <c r="I6" t="n">
         <v>0.0168</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01485756319475088</v>
+        <v>0.01469817720916803</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03295756319475088</v>
+        <v>0.03279817720916803</v>
       </c>
     </row>
     <row r="7">
@@ -707,22 +707,22 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>7.802962299009545</v>
+        <v>7.802931463181362</v>
       </c>
       <c r="G7" t="n">
-        <v>84.75999999999999</v>
+        <v>84.872</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03180011270550955</v>
+        <v>0.03162033515675691</v>
       </c>
       <c r="I7" t="n">
         <v>0.0149</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01690011270550956</v>
+        <v>0.01672033515675691</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03500011270550955</v>
+        <v>0.03482033515675691</v>
       </c>
     </row>
   </sheetData>

--- a/bond_composite.xlsx
+++ b/bond_composite.xlsx
@@ -512,22 +512,22 @@
         <v>47098</v>
       </c>
       <c r="F2" t="n">
-        <v>6.403479537592593</v>
+        <v>6.403440825241153</v>
       </c>
       <c r="G2" t="n">
-        <v>88.65000000000001</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03168230889232371</v>
+        <v>0.1368218913981194</v>
       </c>
       <c r="I2" t="n">
         <v>0.0133</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01838230889232371</v>
+        <v>0.1235218913981194</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03648230889232371</v>
+        <v>0.1416218913981194</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +553,22 @@
         <v>46736</v>
       </c>
       <c r="F3" t="n">
-        <v>5.411698653838122</v>
+        <v>5.411659908575279</v>
       </c>
       <c r="G3" t="n">
-        <v>95.8</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03536100684835874</v>
+        <v>0.1891485050583628</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0122</v>
+        <v>0.0121</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02316100684835875</v>
+        <v>0.1770485050583628</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04126100684835875</v>
+        <v>0.1951485050583628</v>
       </c>
     </row>
     <row r="4">
@@ -594,22 +594,22 @@
         <v>48929</v>
       </c>
       <c r="F4" t="n">
-        <v>11.41991775820494</v>
+        <v>11.41987899613775</v>
       </c>
       <c r="G4" t="n">
-        <v>77.06</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03119143734225438</v>
+        <v>0.2858947207909965</v>
       </c>
       <c r="I4" t="n">
         <v>0.019</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01219143734225438</v>
+        <v>0.2668947207909965</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03029143734225438</v>
+        <v>0.2849947207909965</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         <v>47059</v>
       </c>
       <c r="F5" t="n">
-        <v>6.296630026585585</v>
+        <v>6.296591262677004</v>
       </c>
       <c r="G5" t="n">
-        <v>83.84999999999999</v>
+        <v>40.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02836874549167967</v>
+        <v>0.1565969290671765</v>
       </c>
       <c r="I5" t="n">
         <v>0.0132</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01516874549167967</v>
+        <v>0.1433969290671765</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03326874549167967</v>
+        <v>0.1614969290671765</v>
       </c>
     </row>
     <row r="6">
@@ -676,22 +676,22 @@
         <v>48222</v>
       </c>
       <c r="F6" t="n">
-        <v>9.482931339685566</v>
+        <v>9.482892538627379</v>
       </c>
       <c r="G6" t="n">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03149817720916803</v>
+        <v>0.1774148924107366</v>
       </c>
       <c r="I6" t="n">
         <v>0.0168</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01469817720916803</v>
+        <v>0.1606148924107366</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03279817720916803</v>
+        <v>0.1787148924107366</v>
       </c>
     </row>
     <row r="7">
@@ -707,22 +707,22 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>7.802931463181362</v>
+        <v>7.802892706251713</v>
       </c>
       <c r="G7" t="n">
-        <v>84.872</v>
+        <v>35.002</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03162033515675691</v>
+        <v>0.1891753877450784</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0149</v>
+        <v>0.01488</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01672033515675691</v>
+        <v>0.1742953877450784</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03482033515675691</v>
+        <v>0.1923953877450784</v>
       </c>
     </row>
   </sheetData>
